--- a/src/main/resources/chicken.xlsx
+++ b/src/main/resources/chicken.xlsx
@@ -64,7 +64,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="21"/>
+        <color indexed="22"/>
         <rFont val="Courier"/>
       </rPr>
       <t>varchar</t>
@@ -72,7 +72,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="10"/>
+        <color indexed="12"/>
         <rFont val="Courier"/>
       </rPr>
       <t>(</t>
@@ -80,7 +80,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="24"/>
+        <color indexed="25"/>
         <rFont val="Courier"/>
       </rPr>
       <t>128</t>
@@ -88,7 +88,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="10"/>
+        <color indexed="12"/>
         <rFont val="Courier"/>
       </rPr>
       <t>)</t>
@@ -98,7 +98,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="10"/>
+        <color indexed="12"/>
         <rFont val="Courier"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -106,7 +106,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="21"/>
+        <color indexed="22"/>
         <rFont val="Courier"/>
       </rPr>
       <t>null</t>
@@ -170,7 +170,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="21"/>
+        <color indexed="22"/>
         <rFont val="Courier"/>
       </rPr>
       <t>varchar</t>
@@ -178,7 +178,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="10"/>
+        <color indexed="12"/>
         <rFont val="Courier"/>
       </rPr>
       <t>(</t>
@@ -186,7 +186,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="24"/>
+        <color indexed="25"/>
         <rFont val="Courier"/>
       </rPr>
       <t>255</t>
@@ -194,7 +194,7 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="10"/>
+        <color indexed="12"/>
         <rFont val="Courier"/>
       </rPr>
       <t>)</t>
@@ -250,7 +250,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -262,44 +262,44 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <sz val="13"/>
-      <color indexed="10"/>
+      <color indexed="12"/>
       <name val="Courier"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b val="1"/>
       <sz val="10"/>
-      <color indexed="8"/>
+      <color indexed="9"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="13"/>
-      <color indexed="18"/>
+      <color indexed="19"/>
       <name val="Courier"/>
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="9"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="9"/>
+      <color indexed="8"/>
       <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <sz val="13"/>
-      <color indexed="21"/>
-      <name val="Courier"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color indexed="23"/>
+      <color indexed="22"/>
       <name val="Courier"/>
     </font>
     <font>
@@ -308,8 +308,13 @@
       <name val="Courier"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="25"/>
+      <name val="Courier"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color indexed="8"/>
+      <color indexed="9"/>
       <name val="Helvetica Neue Medium"/>
     </font>
   </fonts>
@@ -322,13 +327,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor indexed="8"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -340,7 +339,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="15"/>
+        <fgColor indexed="14"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -358,7 +357,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="19"/>
+        <fgColor indexed="18"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -370,12 +369,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor indexed="21"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="23"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -385,11 +390,85 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="9"/>
@@ -397,36 +476,184 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -437,14 +664,36 @@
       <left style="thin">
         <color indexed="9"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="15"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="15"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,296 +701,89 @@
       <left style="thin">
         <color indexed="9"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
         <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="15"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,140 +793,143 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -903,11 +948,12 @@
       <rgbColor rgb="ffffff00"/>
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
       <rgbColor rgb="fffefffe"/>
-      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffafafaf"/>
       <rgbColor rgb="ffbbbdc3"/>
       <rgbColor rgb="ff6c6c6b"/>
-      <rgbColor rgb="ffafafaf"/>
       <rgbColor rgb="ffa9cd90"/>
       <rgbColor rgb="ffb5b5b5"/>
       <rgbColor rgb="ff434443"/>
@@ -936,10 +982,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="434343"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="A9A9A9"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="0076BA"/>
@@ -1118,9 +1164,12 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1129,7 +1178,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1143,7 +1192,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1152,10 +1201,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1394,12 +1443,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="FFFFFF"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1680,7 +1729,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1699,7 +1748,7 @@
               <a:noFill/>
             </a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
@@ -1948,20 +1997,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:G88"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21.4297" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.2891" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.4219" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6094" style="1" customWidth="1"/>
-    <col min="5" max="5" width="44.7656" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.34375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6719" style="1" customWidth="1"/>
+    <col min="5" max="5" width="44.8516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.35156" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
@@ -1970,1079 +2017,1099 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" ht="20.45" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" ht="20.7" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="A3" t="s" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" t="s" s="7">
+      <c r="B3" s="10"/>
+      <c r="C3" t="s" s="9">
         <v>3</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" t="s" s="10">
+      <c r="D3" s="11"/>
+      <c r="E3" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" ht="20.7" customHeight="1">
-      <c r="A4" t="s" s="13">
+      <c r="A4" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="B4" t="s" s="14">
+      <c r="B4" t="s" s="16">
         <v>6</v>
       </c>
-      <c r="C4" t="s" s="15">
+      <c r="C4" t="s" s="17">
         <v>7</v>
       </c>
-      <c r="D4" t="s" s="15">
+      <c r="D4" t="s" s="17">
         <v>8</v>
       </c>
-      <c r="E4" t="s" s="16">
+      <c r="E4" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" ht="24.75" customHeight="1">
-      <c r="A5" t="s" s="19">
+      <c r="A5" t="s" s="21">
         <v>10</v>
       </c>
-      <c r="B5" t="s" s="20">
+      <c r="B5" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="C5" t="s" s="21">
+      <c r="C5" t="s" s="23">
         <v>11</v>
       </c>
-      <c r="D5" t="s" s="22">
+      <c r="D5" t="s" s="24">
         <v>10</v>
       </c>
-      <c r="E5" t="s" s="22">
+      <c r="E5" t="s" s="24">
         <v>12</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="18"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" ht="24.5" customHeight="1">
-      <c r="A6" t="s" s="24">
+      <c r="A6" t="s" s="26">
         <v>13</v>
       </c>
-      <c r="B6" t="s" s="25">
+      <c r="B6" t="s" s="27">
         <v>14</v>
       </c>
-      <c r="C6" t="s" s="26">
+      <c r="C6" t="s" s="28">
         <v>15</v>
       </c>
-      <c r="D6" t="s" s="27">
+      <c r="D6" t="s" s="29">
         <v>16</v>
       </c>
-      <c r="E6" t="s" s="28">
+      <c r="E6" t="s" s="30">
         <v>17</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="18"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" ht="24.5" customHeight="1">
-      <c r="A7" t="s" s="24">
+      <c r="A7" t="s" s="26">
         <v>13</v>
       </c>
-      <c r="B7" t="s" s="25">
+      <c r="B7" t="s" s="27">
         <v>18</v>
       </c>
-      <c r="C7" t="s" s="26">
+      <c r="C7" t="s" s="28">
         <v>19</v>
       </c>
-      <c r="D7" t="s" s="27">
+      <c r="D7" t="s" s="29">
         <v>16</v>
       </c>
-      <c r="E7" t="s" s="28">
+      <c r="E7" t="s" s="30">
         <v>17</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="18"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" ht="24.5" customHeight="1">
-      <c r="A8" t="s" s="24">
+      <c r="A8" t="s" s="26">
         <v>20</v>
       </c>
-      <c r="B8" t="s" s="25">
+      <c r="B8" t="s" s="27">
         <v>21</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="18"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" ht="20.2" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="18"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" ht="20.45" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" t="s" s="33">
+      <c r="A10" s="34"/>
+      <c r="B10" t="s" s="35">
         <v>20</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="18"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" ht="20.7" customHeight="1">
-      <c r="A11" t="s" s="7">
+      <c r="A11" t="s" s="9">
         <v>2</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" t="s" s="7">
+      <c r="B11" s="10"/>
+      <c r="C11" t="s" s="9">
         <v>3</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" t="s" s="10">
+      <c r="D11" s="11"/>
+      <c r="E11" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="18"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" ht="20.7" customHeight="1">
-      <c r="A12" t="s" s="13">
+      <c r="A12" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="B12" t="s" s="14">
+      <c r="B12" t="s" s="16">
         <v>6</v>
       </c>
-      <c r="C12" t="s" s="15">
+      <c r="C12" t="s" s="17">
         <v>7</v>
       </c>
-      <c r="D12" t="s" s="15">
+      <c r="D12" t="s" s="17">
         <v>8</v>
       </c>
-      <c r="E12" t="s" s="16">
+      <c r="E12" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="18"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" ht="24.75" customHeight="1">
-      <c r="A13" t="s" s="19">
+      <c r="A13" t="s" s="21">
         <v>10</v>
       </c>
-      <c r="B13" t="s" s="20">
+      <c r="B13" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="C13" t="s" s="21">
+      <c r="C13" t="s" s="23">
         <v>11</v>
       </c>
-      <c r="D13" t="s" s="22">
+      <c r="D13" t="s" s="24">
         <v>10</v>
       </c>
-      <c r="E13" t="s" s="22">
+      <c r="E13" t="s" s="24">
         <v>12</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="18"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" ht="24.5" customHeight="1">
-      <c r="A14" t="s" s="24">
+      <c r="A14" t="s" s="26">
         <v>13</v>
       </c>
-      <c r="B14" t="s" s="25">
+      <c r="B14" t="s" s="27">
         <v>23</v>
       </c>
-      <c r="C14" t="s" s="26">
+      <c r="C14" t="s" s="28">
         <v>23</v>
       </c>
-      <c r="D14" t="s" s="27">
+      <c r="D14" t="s" s="29">
         <v>16</v>
       </c>
-      <c r="E14" t="s" s="28">
+      <c r="E14" t="s" s="30">
         <v>17</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="18"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" ht="24.5" customHeight="1">
-      <c r="A15" t="s" s="24">
+      <c r="A15" t="s" s="26">
         <v>13</v>
       </c>
-      <c r="B15" t="s" s="25">
+      <c r="B15" t="s" s="27">
         <v>24</v>
       </c>
-      <c r="C15" t="s" s="26">
+      <c r="C15" t="s" s="28">
         <v>24</v>
       </c>
-      <c r="D15" t="s" s="27">
+      <c r="D15" t="s" s="29">
         <v>16</v>
       </c>
-      <c r="E15" t="s" s="28">
+      <c r="E15" t="s" s="30">
         <v>17</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="18"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" ht="24.5" customHeight="1">
-      <c r="A16" t="s" s="24">
+      <c r="A16" t="s" s="26">
         <v>13</v>
       </c>
-      <c r="B16" t="s" s="25">
+      <c r="B16" t="s" s="27">
         <v>25</v>
       </c>
-      <c r="C16" t="s" s="26">
+      <c r="C16" t="s" s="28">
         <v>26</v>
       </c>
-      <c r="D16" t="s" s="27">
+      <c r="D16" t="s" s="29">
         <v>16</v>
       </c>
-      <c r="E16" t="s" s="28">
+      <c r="E16" t="s" s="30">
         <v>17</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="18"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" ht="24.5" customHeight="1">
-      <c r="A17" t="s" s="24">
+      <c r="A17" t="s" s="26">
         <v>13</v>
       </c>
-      <c r="B17" t="s" s="25">
+      <c r="B17" t="s" s="27">
         <v>27</v>
       </c>
-      <c r="C17" t="s" s="26">
+      <c r="C17" t="s" s="28">
         <v>27</v>
       </c>
-      <c r="D17" t="s" s="27">
+      <c r="D17" t="s" s="29">
         <v>16</v>
       </c>
-      <c r="E17" t="s" s="28">
+      <c r="E17" t="s" s="30">
         <v>17</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="18"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" ht="24.5" customHeight="1">
-      <c r="A18" t="s" s="24">
+      <c r="A18" t="s" s="26">
         <v>13</v>
       </c>
-      <c r="B18" t="s" s="25">
+      <c r="B18" t="s" s="27">
         <v>28</v>
       </c>
-      <c r="C18" t="s" s="26">
+      <c r="C18" t="s" s="28">
         <v>28</v>
       </c>
-      <c r="D18" t="s" s="27">
+      <c r="D18" t="s" s="29">
         <v>16</v>
       </c>
-      <c r="E18" t="s" s="28">
+      <c r="E18" t="s" s="30">
         <v>17</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="18"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" ht="24.5" customHeight="1">
-      <c r="A19" t="s" s="24">
+      <c r="A19" t="s" s="26">
         <v>29</v>
       </c>
-      <c r="B19" t="s" s="25">
+      <c r="B19" t="s" s="27">
         <v>30</v>
       </c>
-      <c r="C19" t="s" s="26">
+      <c r="C19" t="s" s="28">
         <v>30</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="18"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" ht="24.5" customHeight="1">
-      <c r="A20" t="s" s="24">
+      <c r="A20" t="s" s="26">
         <v>20</v>
       </c>
-      <c r="B20" t="s" s="25">
+      <c r="B20" t="s" s="27">
         <v>21</v>
       </c>
-      <c r="C20" t="s" s="26">
+      <c r="C20" t="s" s="28">
         <v>21</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="18"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" ht="20.2" customHeight="1">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="18"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" ht="20.45" customHeight="1">
-      <c r="A22" s="32"/>
-      <c r="B22" t="s" s="33">
+      <c r="A22" s="34"/>
+      <c r="B22" t="s" s="35">
         <v>31</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" ht="20.7" customHeight="1">
-      <c r="A23" t="s" s="7">
+      <c r="A23" t="s" s="9">
         <v>2</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" t="s" s="7">
+      <c r="B23" s="10"/>
+      <c r="C23" t="s" s="9">
         <v>3</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" t="s" s="10">
+      <c r="D23" s="11"/>
+      <c r="E23" t="s" s="12">
         <v>32</v>
       </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="18"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" ht="20.7" customHeight="1">
-      <c r="A24" t="s" s="13">
+      <c r="A24" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="B24" t="s" s="14">
+      <c r="B24" t="s" s="16">
         <v>6</v>
       </c>
-      <c r="C24" t="s" s="15">
+      <c r="C24" t="s" s="17">
         <v>7</v>
       </c>
-      <c r="D24" t="s" s="15">
+      <c r="D24" t="s" s="17">
         <v>8</v>
       </c>
-      <c r="E24" t="s" s="16">
+      <c r="E24" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="18"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" ht="24.75" customHeight="1">
-      <c r="A25" t="s" s="36">
+      <c r="A25" t="s" s="38">
         <v>33</v>
       </c>
-      <c r="B25" t="s" s="20">
+      <c r="B25" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="C25" t="s" s="21">
+      <c r="C25" t="s" s="23">
         <v>11</v>
       </c>
-      <c r="D25" t="s" s="22">
+      <c r="D25" t="s" s="24">
         <v>34</v>
       </c>
-      <c r="E25" t="s" s="22">
+      <c r="E25" t="s" s="24">
         <v>12</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="18"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" ht="24.5" customHeight="1">
-      <c r="A26" t="s" s="24">
+      <c r="A26" t="s" s="26">
         <v>13</v>
       </c>
-      <c r="B26" t="s" s="25">
+      <c r="B26" t="s" s="27">
         <v>35</v>
       </c>
-      <c r="C26" t="s" s="26">
+      <c r="C26" t="s" s="28">
         <v>35</v>
       </c>
-      <c r="D26" t="s" s="27">
+      <c r="D26" t="s" s="29">
         <v>36</v>
       </c>
-      <c r="E26" t="s" s="27">
+      <c r="E26" t="s" s="29">
         <v>37</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="18"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" ht="24.5" customHeight="1">
-      <c r="A27" t="s" s="24">
+      <c r="A27" t="s" s="26">
         <v>13</v>
       </c>
-      <c r="B27" t="s" s="25">
+      <c r="B27" t="s" s="27">
         <v>23</v>
       </c>
-      <c r="C27" t="s" s="26">
+      <c r="C27" t="s" s="28">
         <v>23</v>
       </c>
-      <c r="D27" t="s" s="27">
+      <c r="D27" t="s" s="29">
         <v>36</v>
       </c>
-      <c r="E27" t="s" s="27">
+      <c r="E27" t="s" s="29">
         <v>38</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="18"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" ht="24.5" customHeight="1">
-      <c r="A28" t="s" s="24">
+      <c r="A28" t="s" s="26">
         <v>13</v>
       </c>
-      <c r="B28" t="s" s="25">
+      <c r="B28" t="s" s="27">
         <v>39</v>
       </c>
-      <c r="C28" t="s" s="26">
+      <c r="C28" t="s" s="28">
         <v>39</v>
       </c>
-      <c r="D28" t="s" s="27">
+      <c r="D28" t="s" s="29">
         <v>36</v>
       </c>
-      <c r="E28" t="s" s="27">
+      <c r="E28" t="s" s="29">
         <v>38</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="18"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="20"/>
     </row>
     <row r="29" ht="24.5" customHeight="1">
-      <c r="A29" t="s" s="37">
+      <c r="A29" t="s" s="39">
         <v>40</v>
       </c>
-      <c r="B29" t="s" s="25">
+      <c r="B29" t="s" s="27">
         <v>41</v>
       </c>
-      <c r="C29" t="s" s="26">
+      <c r="C29" t="s" s="28">
         <v>41</v>
       </c>
-      <c r="D29" t="s" s="27">
+      <c r="D29" t="s" s="29">
         <v>40</v>
       </c>
-      <c r="E29" t="s" s="27">
+      <c r="E29" t="s" s="29">
         <v>38</v>
       </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="18"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="20"/>
     </row>
     <row r="30" ht="24.5" customHeight="1">
-      <c r="A30" t="s" s="37">
+      <c r="A30" t="s" s="39">
         <v>40</v>
       </c>
-      <c r="B30" t="s" s="25">
+      <c r="B30" t="s" s="27">
         <v>42</v>
       </c>
-      <c r="C30" t="s" s="26">
+      <c r="C30" t="s" s="28">
         <v>43</v>
       </c>
-      <c r="D30" t="s" s="27">
+      <c r="D30" t="s" s="29">
         <v>40</v>
       </c>
-      <c r="E30" t="s" s="27">
+      <c r="E30" t="s" s="29">
         <v>38</v>
       </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="18"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" ht="20.2" customHeight="1">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="18"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="20"/>
     </row>
     <row r="32" ht="24.75" customHeight="1">
-      <c r="A32" s="32"/>
-      <c r="B32" t="s" s="38">
+      <c r="A32" s="34"/>
+      <c r="B32" t="s" s="40">
         <v>44</v>
       </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="20"/>
     </row>
     <row r="33" ht="20.7" customHeight="1">
-      <c r="A33" t="s" s="7">
+      <c r="A33" t="s" s="9">
         <v>2</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" t="s" s="7">
+      <c r="B33" s="10"/>
+      <c r="C33" t="s" s="9">
         <v>3</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" t="s" s="10">
+      <c r="D33" s="11"/>
+      <c r="E33" t="s" s="12">
         <v>30</v>
       </c>
-      <c r="F33" s="35"/>
-      <c r="G33" s="18"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" ht="20.7" customHeight="1">
-      <c r="A34" t="s" s="13">
+      <c r="A34" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="B34" t="s" s="14">
+      <c r="B34" t="s" s="16">
         <v>6</v>
       </c>
-      <c r="C34" t="s" s="15">
+      <c r="C34" t="s" s="17">
         <v>7</v>
       </c>
-      <c r="D34" t="s" s="15">
+      <c r="D34" t="s" s="17">
         <v>8</v>
       </c>
-      <c r="E34" t="s" s="16">
+      <c r="E34" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="F34" s="35"/>
-      <c r="G34" s="18"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="20"/>
     </row>
     <row r="35" ht="24.75" customHeight="1">
-      <c r="A35" t="s" s="19">
+      <c r="A35" t="s" s="21">
         <v>10</v>
       </c>
-      <c r="B35" t="s" s="20">
+      <c r="B35" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="C35" t="s" s="21">
+      <c r="C35" t="s" s="23">
         <v>11</v>
       </c>
-      <c r="D35" t="s" s="22">
+      <c r="D35" t="s" s="24">
         <v>10</v>
       </c>
-      <c r="E35" t="s" s="22">
+      <c r="E35" t="s" s="24">
         <v>12</v>
       </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="18"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="20"/>
     </row>
     <row r="36" ht="24.5" customHeight="1">
-      <c r="A36" t="s" s="24">
+      <c r="A36" t="s" s="26">
         <v>13</v>
       </c>
-      <c r="B36" t="s" s="25">
+      <c r="B36" t="s" s="27">
         <v>45</v>
       </c>
-      <c r="C36" t="s" s="26">
+      <c r="C36" t="s" s="28">
         <v>46</v>
       </c>
-      <c r="D36" t="s" s="27">
+      <c r="D36" t="s" s="29">
         <v>36</v>
       </c>
-      <c r="E36" t="s" s="27">
+      <c r="E36" t="s" s="29">
         <v>38</v>
       </c>
-      <c r="F36" s="29"/>
-      <c r="G36" s="18"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="20"/>
     </row>
     <row r="37" ht="24.5" customHeight="1">
-      <c r="A37" t="s" s="24">
+      <c r="A37" t="s" s="26">
         <v>20</v>
       </c>
-      <c r="B37" t="s" s="25">
+      <c r="B37" t="s" s="27">
         <v>21</v>
       </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="20"/>
     </row>
     <row r="38" ht="20.2" customHeight="1">
-      <c r="A38" s="30"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="18"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="20"/>
     </row>
     <row r="39" ht="24.75" customHeight="1">
-      <c r="A39" s="32"/>
-      <c r="B39" t="s" s="38">
+      <c r="A39" s="34"/>
+      <c r="B39" t="s" s="40">
         <v>47</v>
       </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="18"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="20"/>
     </row>
     <row r="40" ht="20.7" customHeight="1">
-      <c r="A40" t="s" s="7">
+      <c r="A40" t="s" s="9">
         <v>2</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" t="s" s="7">
+      <c r="B40" s="10"/>
+      <c r="C40" t="s" s="9">
         <v>3</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" t="s" s="10">
+      <c r="D40" s="11"/>
+      <c r="E40" t="s" s="12">
         <v>48</v>
       </c>
-      <c r="F40" s="35"/>
-      <c r="G40" s="18"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" ht="20.7" customHeight="1">
-      <c r="A41" t="s" s="13">
+      <c r="A41" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="B41" t="s" s="14">
+      <c r="B41" t="s" s="16">
         <v>6</v>
       </c>
-      <c r="C41" t="s" s="15">
+      <c r="C41" t="s" s="17">
         <v>7</v>
       </c>
-      <c r="D41" t="s" s="15">
+      <c r="D41" t="s" s="17">
         <v>8</v>
       </c>
-      <c r="E41" t="s" s="16">
+      <c r="E41" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="F41" s="35"/>
-      <c r="G41" s="18"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="20"/>
     </row>
     <row r="42" ht="24.75" customHeight="1">
-      <c r="A42" t="s" s="36">
+      <c r="A42" t="s" s="21">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s" s="22">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s" s="23">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="24">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s" s="24">
+        <v>12</v>
+      </c>
+      <c r="F42" s="31"/>
+      <c r="G42" s="20"/>
+    </row>
+    <row r="43" ht="20.2" customHeight="1">
+      <c r="A43" t="s" s="26">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="C43" t="s" s="28">
+        <v>23</v>
+      </c>
+      <c r="D43" t="s" s="29">
+        <v>36</v>
+      </c>
+      <c r="E43" t="s" s="29">
+        <v>38</v>
+      </c>
+      <c r="F43" s="31"/>
+      <c r="G43" s="20"/>
+    </row>
+    <row r="44" ht="20.2" customHeight="1">
+      <c r="A44" t="s" s="26">
         <v>49</v>
       </c>
-      <c r="B42" t="s" s="20">
+      <c r="B44" t="s" s="27">
         <v>50</v>
       </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="18"/>
-    </row>
-    <row r="43" ht="20.2" customHeight="1">
-      <c r="A43" s="30"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="18"/>
-    </row>
-    <row r="44" ht="20.2" customHeight="1">
-      <c r="A44" s="30"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="18"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="20"/>
     </row>
     <row r="45" ht="20.2" customHeight="1">
-      <c r="A45" s="30"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="18"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="20"/>
     </row>
     <row r="46" ht="20.2" customHeight="1">
-      <c r="A46" s="30"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="18"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="20"/>
     </row>
     <row r="47" ht="20.2" customHeight="1">
-      <c r="A47" s="30"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="18"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="20"/>
     </row>
     <row r="48" ht="20.2" customHeight="1">
-      <c r="A48" s="30"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="18"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="20"/>
     </row>
     <row r="49" ht="20.2" customHeight="1">
-      <c r="A49" s="30"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="18"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="20"/>
     </row>
     <row r="50" ht="20.2" customHeight="1">
-      <c r="A50" s="30"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="18"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="20"/>
     </row>
     <row r="51" ht="20.2" customHeight="1">
-      <c r="A51" s="30"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="18"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="20"/>
     </row>
     <row r="52" ht="20.2" customHeight="1">
-      <c r="A52" s="30"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="18"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="20"/>
     </row>
     <row r="53" ht="20.2" customHeight="1">
-      <c r="A53" s="30"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="18"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="20"/>
     </row>
     <row r="54" ht="20.2" customHeight="1">
-      <c r="A54" s="30"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="18"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="20"/>
     </row>
     <row r="55" ht="20.2" customHeight="1">
-      <c r="A55" s="30"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="18"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="20"/>
     </row>
     <row r="56" ht="20.2" customHeight="1">
-      <c r="A56" s="30"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="18"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="20"/>
     </row>
     <row r="57" ht="20.2" customHeight="1">
-      <c r="A57" s="30"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="18"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="20"/>
     </row>
     <row r="58" ht="20.2" customHeight="1">
-      <c r="A58" s="30"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="18"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="20"/>
     </row>
     <row r="59" ht="20.2" customHeight="1">
-      <c r="A59" s="30"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="18"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="20"/>
     </row>
     <row r="60" ht="20.2" customHeight="1">
-      <c r="A60" s="30"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="18"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="20"/>
     </row>
     <row r="61" ht="20.2" customHeight="1">
-      <c r="A61" s="30"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="18"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="20"/>
     </row>
     <row r="62" ht="20.2" customHeight="1">
-      <c r="A62" s="30"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="18"/>
+      <c r="A62" s="32"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="20"/>
     </row>
     <row r="63" ht="20.2" customHeight="1">
-      <c r="A63" s="30"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="18"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="20"/>
     </row>
     <row r="64" ht="20.2" customHeight="1">
-      <c r="A64" s="30"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="18"/>
+      <c r="A64" s="32"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="20"/>
     </row>
     <row r="65" ht="20.2" customHeight="1">
-      <c r="A65" s="30"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="18"/>
+      <c r="A65" s="32"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="20"/>
     </row>
     <row r="66" ht="20.2" customHeight="1">
-      <c r="A66" s="30"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="18"/>
+      <c r="A66" s="32"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="20"/>
     </row>
     <row r="67" ht="20.2" customHeight="1">
-      <c r="A67" s="30"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="18"/>
+      <c r="A67" s="32"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="20"/>
     </row>
     <row r="68" ht="20.2" customHeight="1">
-      <c r="A68" s="30"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="18"/>
+      <c r="A68" s="32"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="20"/>
     </row>
     <row r="69" ht="20.2" customHeight="1">
-      <c r="A69" s="30"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="18"/>
+      <c r="A69" s="32"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="20"/>
     </row>
     <row r="70" ht="20.2" customHeight="1">
-      <c r="A70" s="30"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="18"/>
+      <c r="A70" s="32"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="20"/>
     </row>
     <row r="71" ht="20.2" customHeight="1">
-      <c r="A71" s="30"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="18"/>
+      <c r="A71" s="32"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="20"/>
     </row>
     <row r="72" ht="20.2" customHeight="1">
-      <c r="A72" s="30"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="18"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="20"/>
     </row>
     <row r="73" ht="20.2" customHeight="1">
-      <c r="A73" s="30"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="18"/>
+      <c r="A73" s="32"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="20"/>
     </row>
     <row r="74" ht="20.2" customHeight="1">
-      <c r="A74" s="30"/>
-      <c r="B74" s="31"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="18"/>
+      <c r="A74" s="32"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="20"/>
     </row>
     <row r="75" ht="20.2" customHeight="1">
-      <c r="A75" s="30"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="18"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="20"/>
     </row>
     <row r="76" ht="20.2" customHeight="1">
-      <c r="A76" s="30"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="18"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="20"/>
     </row>
     <row r="77" ht="20.2" customHeight="1">
-      <c r="A77" s="30"/>
-      <c r="B77" s="31"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="18"/>
+      <c r="A77" s="32"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="20"/>
     </row>
     <row r="78" ht="20.2" customHeight="1">
-      <c r="A78" s="30"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="18"/>
+      <c r="A78" s="32"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="20"/>
     </row>
     <row r="79" ht="20.2" customHeight="1">
-      <c r="A79" s="30"/>
-      <c r="B79" s="31"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="18"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="20"/>
     </row>
     <row r="80" ht="20.2" customHeight="1">
-      <c r="A80" s="30"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="18"/>
+      <c r="A80" s="32"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="20"/>
     </row>
     <row r="81" ht="20.2" customHeight="1">
-      <c r="A81" s="30"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="18"/>
+      <c r="A81" s="32"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="20"/>
     </row>
     <row r="82" ht="20.2" customHeight="1">
-      <c r="A82" s="30"/>
-      <c r="B82" s="31"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="18"/>
+      <c r="A82" s="32"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="20"/>
     </row>
     <row r="83" ht="20.2" customHeight="1">
-      <c r="A83" s="30"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="18"/>
+      <c r="A83" s="32"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="20"/>
     </row>
     <row r="84" ht="20.2" customHeight="1">
-      <c r="A84" s="30"/>
-      <c r="B84" s="31"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="18"/>
+      <c r="A84" s="32"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="20"/>
     </row>
     <row r="85" ht="20.2" customHeight="1">
-      <c r="A85" s="30"/>
-      <c r="B85" s="31"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="18"/>
+      <c r="A85" s="32"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="20"/>
     </row>
     <row r="86" ht="20.2" customHeight="1">
-      <c r="A86" s="30"/>
-      <c r="B86" s="31"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="18"/>
+      <c r="A86" s="32"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="20"/>
     </row>
     <row r="87" ht="20.2" customHeight="1">
-      <c r="A87" s="30"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="18"/>
+      <c r="A87" s="32"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="20"/>
     </row>
     <row r="88" ht="20.2" customHeight="1">
-      <c r="A88" s="41"/>
-      <c r="B88" s="42"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="43"/>
-      <c r="E88" s="43"/>
-      <c r="F88" s="43"/>
-      <c r="G88" s="44"/>
+      <c r="A88" s="42"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3062,7 +3129,7 @@
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;KFEFFFE&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/src/main/resources/chicken.xlsx
+++ b/src/main/resources/chicken.xlsx
@@ -237,10 +237,10 @@
     <t>cart</t>
   </si>
   <si>
-    <t>List&lt;Product&gt;</t>
-  </si>
-  <si>
-    <t>items</t>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>product_name</t>
   </si>
 </sst>
 </file>
@@ -250,7 +250,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -316,6 +316,21 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Helvetica Neue Medium"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="26"/>
+      <name val="Courier"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="27"/>
+      <name val="Courier"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="28"/>
+      <name val="Courier"/>
     </font>
   </fonts>
   <fills count="11">
@@ -793,7 +808,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -918,6 +933,21 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="10" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -966,6 +996,9 @@
       <rgbColor rgb="ff2c2c2c"/>
       <rgbColor rgb="ffc67dbb"/>
       <rgbColor rgb="ff29abb7"/>
+      <rgbColor rgb="ffc67dbb"/>
+      <rgbColor rgb="ff69ab73"/>
+      <rgbColor rgb="ffbbbdc3"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -2687,14 +2720,14 @@
       <c r="A43" t="s" s="26">
         <v>13</v>
       </c>
-      <c r="B43" t="s" s="27">
-        <v>23</v>
-      </c>
-      <c r="C43" t="s" s="28">
-        <v>23</v>
+      <c r="B43" t="s" s="42">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s" s="43">
+        <v>50</v>
       </c>
       <c r="D43" t="s" s="29">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E43" t="s" s="29">
         <v>38</v>
@@ -2703,24 +2736,40 @@
       <c r="G43" s="20"/>
     </row>
     <row r="44" ht="20.2" customHeight="1">
-      <c r="A44" t="s" s="26">
-        <v>49</v>
-      </c>
-      <c r="B44" t="s" s="27">
-        <v>50</v>
-      </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
+      <c r="A44" t="s" s="44">
+        <v>13</v>
+      </c>
+      <c r="B44" t="s" s="45">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s" s="43">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s" s="29">
+        <v>16</v>
+      </c>
+      <c r="E44" t="s" s="29">
+        <v>37</v>
+      </c>
       <c r="F44" s="31"/>
       <c r="G44" s="20"/>
     </row>
     <row r="45" ht="20.2" customHeight="1">
-      <c r="A45" s="32"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
+      <c r="A45" t="s" s="44">
+        <v>13</v>
+      </c>
+      <c r="B45" t="s" s="46">
+        <v>27</v>
+      </c>
+      <c r="C45" t="s" s="43">
+        <v>27</v>
+      </c>
+      <c r="D45" t="s" s="29">
+        <v>16</v>
+      </c>
+      <c r="E45" t="s" s="29">
+        <v>37</v>
+      </c>
       <c r="F45" s="31"/>
       <c r="G45" s="20"/>
     </row>
@@ -3103,13 +3152,13 @@
       <c r="G87" s="20"/>
     </row>
     <row r="88" ht="20.2" customHeight="1">
-      <c r="A88" s="42"/>
-      <c r="B88" s="43"/>
-      <c r="C88" s="44"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="44"/>
-      <c r="F88" s="44"/>
-      <c r="G88" s="45"/>
+      <c r="A88" s="47"/>
+      <c r="B88" s="48"/>
+      <c r="C88" s="49"/>
+      <c r="D88" s="49"/>
+      <c r="E88" s="49"/>
+      <c r="F88" s="49"/>
+      <c r="G88" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="12">
